--- a/Saison23/DonnéesCSV/Saisie des points.xlsx
+++ b/Saison23/DonnéesCSV/Saisie des points.xlsx
@@ -2,21 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://054gc-my.sharepoint.com/personal/martin_sirois_statcan_gc_ca/Documents/01_Perso/GEHStatcan GIT/gehstatcan.github.io/gehstatcan.github.io/Saison22/DonnéesCSV/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siromar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{051964F9-C09D-4903-966E-9ED66CA3DFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D7E13AC-D576-4EDA-B412-A645ED85165B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A805F3F1-C389-413B-9719-95D15E84AFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Saisie" sheetId="1" r:id="rId1"/>
     <sheet name="tblÉquipes" sheetId="3" r:id="rId2"/>
     <sheet name="tblJoueurs" sheetId="4" r:id="rId3"/>
+    <sheet name="Feuil2" sheetId="6" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="tblJoueurs_1" localSheetId="3">Feuil2!$A$1:$H$73</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,8 +41,27 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="tblJoueurs" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="C:\GIT\gehstatcan.github.io\Saison23\DonnéesCSV\tblJoueurs.csv" tab="0" comma="1">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="143">
   <si>
     <t>NoÉquipe</t>
   </si>
@@ -74,12 +97,6 @@
     <t>Carillon</t>
   </si>
   <si>
-    <t>Les Disciples de Yaourt</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Les Bons Perdants</t>
   </si>
   <si>
@@ -200,43 +217,16 @@
     <t>David</t>
   </si>
   <si>
-    <t>Lemyre (Disciples)</t>
-  </si>
-  <si>
     <t>Morency</t>
   </si>
   <si>
     <t>Jean-Dominique</t>
   </si>
   <si>
-    <t>Borrelli</t>
-  </si>
-  <si>
-    <t>Kevin</t>
-  </si>
-  <si>
     <t>Capitaine</t>
   </si>
   <si>
-    <t>Dionne</t>
-  </si>
-  <si>
-    <t>Claude</t>
-  </si>
-  <si>
-    <t>Ouellet-Léveillé</t>
-  </si>
-  <si>
-    <t>Bertrand</t>
-  </si>
-  <si>
-    <t>Morin</t>
-  </si>
-  <si>
     <t>Bruno</t>
-  </si>
-  <si>
-    <t>Lavoie</t>
   </si>
   <si>
     <t>François</t>
@@ -633,7 +623,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="1" builtinId="21"/>
+    <cellStyle name="Sortie" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -679,9 +669,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tblJoueurs_1" connectionId="1" xr16:uid="{00000000-0016-0000-0300-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tblÉquipes" displayName="tblÉquipes" ref="A1:E9" totalsRowShown="0">
-  <autoFilter ref="A1:E9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tblÉquipes" displayName="tblÉquipes" ref="A1:E8" totalsRowShown="0">
+  <autoFilter ref="A1:E8" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NoÉquipe"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NomÉquipe" dataDxfId="9"/>
@@ -698,6 +692,10 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="tblJoueurs" displayName="tblJoueurs" ref="A1:K81" totalsRowShown="0">
   <autoFilter ref="A1:K81" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K81">
+    <sortCondition ref="A2:A81"/>
+    <sortCondition ref="B2:B81"/>
+  </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="NoÉquipe"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="NoJoueur"/>
@@ -1021,10 +1019,10 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="K4" sqref="K4:K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
@@ -1040,115 +1038,115 @@
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="F1" s="4" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="K1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B2" s="3">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <f>VLOOKUP(B3,tblÉquipes[[#All],[NomÉquipe]:[NoÉquipe2]],4,FALSE)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <f>VLOOKUP(B4,tblÉquipes[[#All],[NomÉquipe]:[NoÉquipe2]],4,FALSE)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" cm="1">
         <f t="array" ref="F4:I13">_xlfn._xlws.FILTER(F18:I45,I18:I45&gt;0)</f>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K4" t="str">
         <f>F4&amp;","&amp;G4&amp;","&amp;H4&amp;","&amp;I4</f>
-        <v>47,6,1,100</v>
+        <v>2,4,1,110</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F5">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" ref="K5:K13" si="0">F5&amp;","&amp;G5&amp;","&amp;H5&amp;","&amp;I5</f>
-        <v>47,6,2,40</v>
+        <v>2,4,2,80</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F6">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="0"/>
-        <v>47,6,4,180</v>
+        <v>2,4,3,70</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1156,77 +1154,77 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="F7">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
-        <v>47,6,9,30</v>
+        <v>2,4,4,50</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" cm="1">
-        <f t="array" ref="A8:C33">_xlfn._xlws.FILTER(tblJoueurs!I:K,(tblJoueurs!I:I=$C$3)+(tblJoueurs!I:I=$C$4),"")</f>
-        <v>6</v>
+        <f t="array" ref="A8:C30">_xlfn._xlws.FILTER(tblJoueurs!I:K,(tblJoueurs!I:I=$C$3)+(tblJoueurs!I:I=$C$4),"")</f>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="str">
-        <v>Stéphane Mongeau</v>
+        <v>Sébastien Landry</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F8">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H8">
         <v>99</v>
       </c>
       <c r="I8">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
-        <v>47,6,99,55</v>
+        <v>2,4,99,25</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="str">
-        <v>Pierre-Olivier Julien</v>
+        <v>Frédéric Bédard</v>
       </c>
       <c r="D9" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F9">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -1235,26 +1233,28 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
-        <v>47,7,1,75</v>
+        <v>2,7,1,85</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" t="str">
-        <v>Julien Bérard-Chagnon</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>Geneviève Ouellet</v>
+      </c>
+      <c r="D10" s="3">
+        <v>70</v>
+      </c>
       <c r="F10">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>7</v>
@@ -1263,28 +1263,28 @@
         <v>2</v>
       </c>
       <c r="I10">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="0"/>
-        <v>47,7,2,50</v>
+        <v>2,7,2,20</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" t="str">
-        <v>Patrick Charbonneau</v>
+        <v>Samuel Vézina</v>
       </c>
       <c r="D11" s="3">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="F11">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -1293,26 +1293,26 @@
         <v>3</v>
       </c>
       <c r="I11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
-        <v>47,7,3,40</v>
+        <v>2,7,3,50</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
       <c r="C12" t="str">
-        <v>Keven Bosa</v>
+        <v>Jean-Dominique Morency</v>
       </c>
       <c r="D12" s="3"/>
       <c r="F12">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -1321,26 +1321,26 @@
         <v>4</v>
       </c>
       <c r="I12">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
-        <v>47,7,4,50</v>
+        <v>2,7,4,160</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <v>6</v>
       </c>
       <c r="C13" t="str">
-        <v>Étienne Rassart</v>
+        <v>Stéphane Martineau</v>
       </c>
       <c r="D13" s="3"/>
       <c r="F13">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -1349,98 +1349,100 @@
         <v>99</v>
       </c>
       <c r="I13">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
-        <v>47,7,99,40</v>
+        <v>2,7,99,45</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14">
         <v>7</v>
       </c>
       <c r="C14" t="str">
-        <v>Daphné Allard Gervais</v>
+        <v>Michel Parenteau</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B15">
         <v>8</v>
       </c>
       <c r="C15" t="str">
-        <v>Emy Bourdages</v>
+        <v>Caroline Pelletier</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16">
         <v>9</v>
       </c>
       <c r="C16" t="str">
-        <v>David Binet</v>
-      </c>
-      <c r="D16" s="3">
-        <v>30</v>
-      </c>
+        <v>Absent Absent</v>
+      </c>
+      <c r="D16" s="3"/>
       <c r="F16" s="6" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="C17" t="str">
-        <v>Absent Absent</v>
-      </c>
-      <c r="D17" s="3"/>
+        <v>NA Les Herbizarres</v>
+      </c>
+      <c r="D17" s="3">
+        <v>25</v>
+      </c>
       <c r="F17" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C18" t="str">
-        <v>François Sergerie</v>
-      </c>
-      <c r="D18" s="3"/>
+        <v>Philippe Bérubé</v>
+      </c>
+      <c r="D18" s="3">
+        <v>85</v>
+      </c>
       <c r="F18">
         <f>$B$2</f>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <f t="shared" ref="G18:G38" si="1">A8</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H18">
         <f t="shared" ref="H18:H38" si="2">B8</f>
@@ -1448,27 +1450,29 @@
       </c>
       <c r="I18">
         <f t="shared" ref="I18:I38" si="3">D8</f>
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C19" t="str">
-        <v>Arnaud Bouchard-Santerre</v>
-      </c>
-      <c r="D19" s="3"/>
+        <v>Tony Labillois</v>
+      </c>
+      <c r="D19" s="3">
+        <v>20</v>
+      </c>
       <c r="F19">
         <f t="shared" ref="F19:F45" si="4">$B$2</f>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
@@ -1476,29 +1480,29 @@
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="C20" t="str">
-        <v>NA Les 12e meilleurs</v>
+        <v>Éric Caron-Malenfant</v>
       </c>
       <c r="D20" s="3">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F20">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
@@ -1506,7 +1510,7 @@
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1514,21 +1518,21 @@
         <v>7</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C21" t="str">
-        <v>Philippe Bérubé</v>
+        <v>Pierre Galarneau</v>
       </c>
       <c r="D21" s="3">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="F21">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
@@ -1536,7 +1540,7 @@
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
-        <v>180</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1544,21 +1548,19 @@
         <v>7</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C22" t="str">
-        <v>Tony Labillois</v>
-      </c>
-      <c r="D22" s="3">
-        <v>50</v>
-      </c>
+        <v>Félix Labrecque-Synnott</v>
+      </c>
+      <c r="D22" s="3"/>
       <c r="F22">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
@@ -1574,21 +1576,19 @@
         <v>7</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C23" t="str">
-        <v>Éric Caron-Malenfant</v>
-      </c>
-      <c r="D23" s="3">
-        <v>40</v>
-      </c>
+        <v>Danielle Turpin</v>
+      </c>
+      <c r="D23" s="3"/>
       <c r="F23">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
@@ -1604,21 +1604,19 @@
         <v>7</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C24" t="str">
-        <v>Pierre Galarneau</v>
-      </c>
-      <c r="D24" s="3">
-        <v>50</v>
-      </c>
+        <v>James Falconer</v>
+      </c>
+      <c r="D24" s="3"/>
       <c r="F24">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
@@ -1634,19 +1632,19 @@
         <v>7</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C25" t="str">
-        <v>Félix Labrecque-Synnott</v>
+        <v>Absent Absent</v>
       </c>
       <c r="D25" s="3"/>
       <c r="F25">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
@@ -1662,19 +1660,19 @@
         <v>7</v>
       </c>
       <c r="B26">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C26" t="str">
-        <v>Danielle Turpin</v>
+        <v>Catherine NA</v>
       </c>
       <c r="D26" s="3"/>
       <c r="F26">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H26">
         <f t="shared" si="2"/>
@@ -1682,7 +1680,7 @@
       </c>
       <c r="I26">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1690,27 +1688,27 @@
         <v>7</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C27" t="str">
-        <v>James Falconer</v>
+        <v>Louis NA</v>
       </c>
       <c r="D27" s="3"/>
       <c r="F27">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1718,27 +1716,27 @@
         <v>7</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C28" t="str">
-        <v>Absent Absent</v>
+        <v>Étienne Lemyre (Faciles)</v>
       </c>
       <c r="D28" s="3"/>
       <c r="F28">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H28">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1746,27 +1744,27 @@
         <v>7</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C29" t="str">
-        <v>Catherine NA</v>
+        <v>Élizabeth LeBlanc</v>
       </c>
       <c r="D29" s="3"/>
       <c r="F29">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1774,43 +1772,36 @@
         <v>7</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="C30" t="str">
-        <v>Louis NA</v>
-      </c>
-      <c r="D30" s="3"/>
+        <v>NA Les Faciles à cuire</v>
+      </c>
+      <c r="D30" s="3">
+        <v>45</v>
+      </c>
       <c r="F30">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H30">
         <f t="shared" si="2"/>
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>7</v>
-      </c>
-      <c r="B31">
-        <v>11</v>
-      </c>
-      <c r="C31" t="str">
-        <v>Étienne Lemyre (Faciles)</v>
-      </c>
       <c r="D31" s="3"/>
       <c r="F31">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
@@ -1818,27 +1809,18 @@
       </c>
       <c r="H31">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I31">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>7</v>
-      </c>
-      <c r="B32">
-        <v>12</v>
-      </c>
-      <c r="C32" t="str">
-        <v>Élizabeth LeBlanc</v>
-      </c>
       <c r="D32" s="3"/>
       <c r="F32">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G32">
         <f t="shared" si="1"/>
@@ -1846,29 +1828,18 @@
       </c>
       <c r="H32">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I32">
         <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>7</v>
-      </c>
-      <c r="B33">
-        <v>99</v>
-      </c>
-      <c r="C33" t="str">
-        <v>NA Les Faciles à cuire</v>
-      </c>
-      <c r="D33" s="3">
-        <v>40</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="3"/>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G33">
         <f t="shared" si="1"/>
@@ -1876,17 +1847,17 @@
       </c>
       <c r="H33">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I33">
         <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F34">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G34">
         <f t="shared" si="1"/>
@@ -1894,17 +1865,17 @@
       </c>
       <c r="H34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I34">
         <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F35">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G35">
         <f t="shared" si="1"/>
@@ -1912,17 +1883,17 @@
       </c>
       <c r="H35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F36">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G36">
         <f t="shared" si="1"/>
@@ -1930,17 +1901,17 @@
       </c>
       <c r="H36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F37">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G37">
         <f t="shared" si="1"/>
@@ -1948,17 +1919,17 @@
       </c>
       <c r="H37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F38">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G38">
         <f t="shared" si="1"/>
@@ -1966,17 +1937,17 @@
       </c>
       <c r="H38">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F39">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G39">
         <f t="shared" ref="G39:H39" si="5">A29</f>
@@ -1984,17 +1955,17 @@
       </c>
       <c r="H39">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I39">
         <f t="shared" ref="I39:I42" si="6">D29</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F40">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G40">
         <f t="shared" ref="G40:H40" si="7">A30</f>
@@ -2002,71 +1973,71 @@
       </c>
       <c r="H40">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="I40">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F41">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G41">
         <f t="shared" ref="G41:H41" si="8">A31</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F42">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G42">
         <f t="shared" ref="G42:H42" si="9">A32</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F43">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G43">
         <f t="shared" ref="G43:G45" si="10">A33</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <f t="shared" ref="H43:H45" si="11">B33</f>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <f t="shared" ref="I43:I45" si="12">D33</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F44">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G44">
         <f t="shared" si="10"/>
@@ -2081,10 +2052,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F45">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G45">
         <f t="shared" si="10"/>
@@ -2111,7 +2082,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>tblÉquipes!$B$2:$B$9</xm:f>
+            <xm:f>tblÉquipes!$B$2:$B$8</xm:f>
           </x14:formula1>
           <xm:sqref>B3:B4</xm:sqref>
         </x14:dataValidation>
@@ -2123,13 +2094,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
@@ -2152,18 +2123,18 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>136</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -2177,11 +2148,11 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>136</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -2195,11 +2166,11 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" t="s">
         <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>136</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -2213,11 +2184,11 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>136</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -2231,11 +2202,11 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>136</v>
       </c>
       <c r="D6">
         <v>16</v>
@@ -2249,11 +2220,11 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>136</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -2267,11 +2238,11 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>136</v>
       </c>
       <c r="D8">
         <v>16</v>
@@ -2279,24 +2250,6 @@
       <c r="E8">
         <f>tblÉquipes[[#This Row],[NoÉquipe]]</f>
         <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <f>tblÉquipes[[#This Row],[NoÉquipe]]</f>
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2313,7 +2266,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -2325,7 +2278,8 @@
     <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2334,34 +2288,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
       <c r="I1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="J1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="K1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -2372,22 +2326,22 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
@@ -2399,7 +2353,7 @@
       </c>
       <c r="K2" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Kevin Borrelli</v>
+        <v>Stéphanie Audet-Brazeau</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -2413,22 +2367,22 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
@@ -2440,7 +2394,7 @@
       </c>
       <c r="K3" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Claude Dionne</v>
+        <v>Julia Colpron</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -2451,22 +2405,22 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
@@ -2478,7 +2432,7 @@
       </c>
       <c r="K4" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Bertrand Ouellet-Léveillé</v>
+        <v>Isabelle Gamache</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -2489,22 +2443,22 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
@@ -2516,7 +2470,7 @@
       </c>
       <c r="K5" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Bruno Morin</v>
+        <v>Catherine Lachance</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -2527,16 +2481,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2554,7 +2508,7 @@
       </c>
       <c r="K6" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>François Lavoie</v>
+        <v>Francis Vilandré</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -2565,16 +2519,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2592,20 +2546,20 @@
       </c>
       <c r="K7" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Étienne Lemyre (Disciples)</v>
+        <v>Julie Sarrazin</v>
       </c>
       <c r="N7" cm="1">
-        <f t="array" ref="N7:Q13">_xlfn._xlws.FILTER(A3:D14,A3:A14=1)</f>
+        <f t="array" ref="N7:Q14">_xlfn._xlws.FILTER(A3:D14,A3:A14=1)</f>
         <v>1</v>
       </c>
       <c r="O7">
         <v>2</v>
       </c>
       <c r="P7" t="str">
-        <v>Dionne</v>
+        <v>Colpron</v>
       </c>
       <c r="Q7" t="str">
-        <v>Claude</v>
+        <v>Julia</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -2616,16 +2570,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -2652,10 +2606,10 @@
         <v>3</v>
       </c>
       <c r="P8" t="str">
-        <v>Ouellet-Léveillé</v>
+        <v>Gamache</v>
       </c>
       <c r="Q8" t="str">
-        <v>Bertrand</v>
+        <v>Isabelle</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -2663,19 +2617,19 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -2689,11 +2643,11 @@
       </c>
       <c r="J9" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="K9" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>NA Les Disciples de Yaourt</v>
+        <v>Émilie Fougères</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -2702,48 +2656,48 @@
         <v>4</v>
       </c>
       <c r="P9" t="str">
-        <v>Morin</v>
+        <v>Lachance</v>
       </c>
       <c r="Q9" t="str">
-        <v>Bruno</v>
+        <v>Catherine</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="K10" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Steeve Boisvert</v>
+        <v>NA Les Génies de la traduction</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -2752,10 +2706,10 @@
         <v>5</v>
       </c>
       <c r="P10" t="str">
-        <v>Lavoie</v>
+        <v>Vilandré</v>
       </c>
       <c r="Q10" t="str">
-        <v>François</v>
+        <v>Francis</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -2763,25 +2717,25 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
@@ -2789,11 +2743,11 @@
       </c>
       <c r="J11" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Samuel Perreault</v>
+        <v>Steeve Boisvert</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -2802,10 +2756,10 @@
         <v>6</v>
       </c>
       <c r="P11" t="str">
-        <v>Lemyre (Disciples)</v>
+        <v>Sarrazin</v>
       </c>
       <c r="Q11" t="str">
-        <v>Étienne</v>
+        <v>Julie</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -2813,25 +2767,25 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
@@ -2839,11 +2793,11 @@
       </c>
       <c r="J12" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K12" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Jonathan Baillargeon</v>
+        <v>Samuel Perreault</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -2863,25 +2817,25 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I13" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
@@ -2889,23 +2843,23 @@
       </c>
       <c r="J13" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K13" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Vincent Hardy</v>
+        <v>Jonathan Baillargeon</v>
       </c>
       <c r="N13">
         <v>1</v>
       </c>
       <c r="O13">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="P13" t="str">
-        <v>Les Disciples de Yaourt</v>
+        <v>Fougères</v>
       </c>
       <c r="Q13" t="str">
-        <v>NA</v>
+        <v>Émilie</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -2913,25 +2867,25 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
@@ -2939,11 +2893,23 @@
       </c>
       <c r="J14" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K14" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Nicole Paquin</v>
+        <v>Vincent Hardy</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>99</v>
+      </c>
+      <c r="P14" t="str">
+        <v>Les Génies de la traduction</v>
+      </c>
+      <c r="Q14" t="str">
+        <v>NA</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -2951,25 +2917,25 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
@@ -2977,11 +2943,11 @@
       </c>
       <c r="J15" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K15" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Franklin Assoumou</v>
+        <v>Nicole Paquin</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -2989,19 +2955,19 @@
         <v>2</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -3015,11 +2981,11 @@
       </c>
       <c r="J16" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K16" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Marie-Hélène Sarrasin</v>
+        <v>Franklin Assoumou</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -3027,19 +2993,19 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -3053,11 +3019,11 @@
       </c>
       <c r="J17" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K17" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Absent Absent</v>
+        <v>Marie-Hélène Sarrasin</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -3065,19 +3031,19 @@
         <v>2</v>
       </c>
       <c r="B18">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -3091,18 +3057,18 @@
       </c>
       <c r="J18" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="K18" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>NA Les Bons Perdants</v>
+        <v>Absent Absent</v>
       </c>
       <c r="M18" cm="1">
-        <f t="array" ref="M18:O25">_xlfn._xlws.FILTER(J:L,I:I=1)</f>
+        <f t="array" ref="M18:O26">_xlfn._xlws.FILTER(J:L,I:I=1)</f>
         <v>1</v>
       </c>
       <c r="N18" t="str">
-        <v>Kevin Borrelli</v>
+        <v>Stéphanie Audet-Brazeau</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -3110,46 +3076,46 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="K19" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Mark Switzer</v>
+        <v>NA Les Bons Perdants</v>
       </c>
       <c r="M19">
         <v>2</v>
       </c>
       <c r="N19" t="str">
-        <v>Claude Dionne</v>
+        <v>Julia Colpron</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -3160,25 +3126,25 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
@@ -3186,17 +3152,17 @@
       </c>
       <c r="J20" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Pierre Parent</v>
+        <v>Mark Switzer</v>
       </c>
       <c r="M20">
         <v>3</v>
       </c>
       <c r="N20" t="str">
-        <v>Bertrand Ouellet-Léveillé</v>
+        <v>Isabelle Gamache</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -3207,25 +3173,25 @@
         <v>3</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
@@ -3233,17 +3199,17 @@
       </c>
       <c r="J21" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K21" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>François Rivest</v>
+        <v>Pierre Parent</v>
       </c>
       <c r="M21">
         <v>4</v>
       </c>
       <c r="N21" t="str">
-        <v>Bruno Morin</v>
+        <v>Catherine Lachance</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -3254,25 +3220,25 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
@@ -3280,17 +3246,17 @@
       </c>
       <c r="J22" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K22" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>André Delage</v>
+        <v>François Rivest</v>
       </c>
       <c r="M22">
         <v>5</v>
       </c>
       <c r="N22" t="str">
-        <v>François Lavoie</v>
+        <v>Francis Vilandré</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -3301,19 +3267,19 @@
         <v>3</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -3327,17 +3293,17 @@
       </c>
       <c r="J23" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K23" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Louise Maheux</v>
+        <v>André Delage</v>
       </c>
       <c r="M23">
         <v>6</v>
       </c>
       <c r="N23" t="str">
-        <v>Étienne Lemyre (Disciples)</v>
+        <v>Julie Sarrazin</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -3348,19 +3314,19 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -3374,11 +3340,11 @@
       </c>
       <c r="J24" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K24" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Yanick Aubé</v>
+        <v>Louise Maheux</v>
       </c>
       <c r="M24">
         <v>7</v>
@@ -3395,19 +3361,19 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -3421,17 +3387,17 @@
       </c>
       <c r="J25" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K25" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Jean-Michel M.</v>
+        <v>Yanick Aubé</v>
       </c>
       <c r="M25">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="N25" t="str">
-        <v>NA Les Disciples de Yaourt</v>
+        <v>Émilie Fougères</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -3442,19 +3408,19 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -3468,11 +3434,20 @@
       </c>
       <c r="J26" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K26" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Absent Absent</v>
+        <v>Jean-Michel M.</v>
+      </c>
+      <c r="M26">
+        <v>99</v>
+      </c>
+      <c r="N26" t="str">
+        <v>NA Les Génies de la traduction</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -3480,19 +3455,19 @@
         <v>3</v>
       </c>
       <c r="B27">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -3506,49 +3481,49 @@
       </c>
       <c r="J27" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="K27" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>NA Les érudits en gerbe</v>
+        <v>Absent Absent</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="E28" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J28" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="K28" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Sébastien Landry</v>
+        <v>NA Les érudits en gerbe</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -3556,25 +3531,25 @@
         <v>4</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F29" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I29" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
@@ -3582,11 +3557,11 @@
       </c>
       <c r="J29" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K29" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Frédéric Bédard</v>
+        <v>Sébastien Landry</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -3594,25 +3569,25 @@
         <v>4</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I30" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
@@ -3620,11 +3595,11 @@
       </c>
       <c r="J30" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K30" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Geneviève Ouellet</v>
+        <v>Frédéric Bédard</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -3632,25 +3607,25 @@
         <v>4</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
@@ -3658,11 +3633,11 @@
       </c>
       <c r="J31" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K31" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Samuel Vézina</v>
+        <v>Geneviève Ouellet</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -3670,19 +3645,19 @@
         <v>4</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3696,11 +3671,11 @@
       </c>
       <c r="J32" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K32" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Jean-Dominique Morency</v>
+        <v>Samuel Vézina</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -3708,25 +3683,25 @@
         <v>4</v>
       </c>
       <c r="B33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
@@ -3734,11 +3709,11 @@
       </c>
       <c r="J33" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K33" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Stéphane Martineau</v>
+        <v>Jean-Dominique Morency</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -3746,25 +3721,25 @@
         <v>4</v>
       </c>
       <c r="B34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E34" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I34" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
@@ -3772,11 +3747,11 @@
       </c>
       <c r="J34" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K34" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Michel Parenteau</v>
+        <v>Stéphane Martineau</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -3784,19 +3759,19 @@
         <v>4</v>
       </c>
       <c r="B35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E35" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3810,11 +3785,11 @@
       </c>
       <c r="J35" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K35" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Caroline Pelletier</v>
+        <v>Michel Parenteau</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -3822,19 +3797,19 @@
         <v>4</v>
       </c>
       <c r="B36">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="D36" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="E36" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3848,11 +3823,11 @@
       </c>
       <c r="J36" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K36" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Absent Absent</v>
+        <v>Caroline Pelletier</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -3860,19 +3835,19 @@
         <v>4</v>
       </c>
       <c r="B37">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3886,49 +3861,49 @@
       </c>
       <c r="J37" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="K37" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>NA Les Herbizarres</v>
+        <v>Absent Absent</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="E38" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I38" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J38" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="K38" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Bruno Lapierre</v>
+        <v>NA Les Herbizarres</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -3936,25 +3911,25 @@
         <v>5</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D39" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="E39" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="F39" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I39" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
@@ -3962,11 +3937,11 @@
       </c>
       <c r="J39" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K39" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Julie Bernier</v>
+        <v>Bruno Lapierre</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -3974,25 +3949,25 @@
         <v>5</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D40" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E40" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F40" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
@@ -4000,11 +3975,11 @@
       </c>
       <c r="J40" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K40" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Sylvain Perron</v>
+        <v>Julie Bernier</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -4012,25 +3987,25 @@
         <v>5</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D41" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E41" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
@@ -4038,11 +4013,11 @@
       </c>
       <c r="J41" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K41" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Martin Sirois</v>
+        <v>Sylvain Perron</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -4050,37 +4025,37 @@
         <v>5</v>
       </c>
       <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
         <v>5</v>
       </c>
-      <c r="C42" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" t="s">
-        <v>102</v>
-      </c>
-      <c r="E42" t="s">
-        <v>102</v>
-      </c>
-      <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>3</v>
-      </c>
-      <c r="I42" s="1">
-        <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
-        <v>5</v>
-      </c>
       <c r="J42" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K42" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Didier Garriguet</v>
+        <v>Martin Sirois</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -4088,25 +4063,25 @@
         <v>5</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E43" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I43" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
@@ -4114,11 +4089,11 @@
       </c>
       <c r="J43" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K43" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Jean-Sébastien Provencal</v>
+        <v>Didier Garriguet</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -4126,19 +4101,19 @@
         <v>5</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="D44" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="E44" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4152,11 +4127,11 @@
       </c>
       <c r="J44" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K44" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Absent Absent</v>
+        <v>Jean-Sébastien Provencal</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -4164,25 +4139,25 @@
         <v>5</v>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="E45" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
@@ -4190,11 +4165,11 @@
       </c>
       <c r="J45" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K45" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Marlène Savard</v>
+        <v>Absent Absent</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -4202,25 +4177,25 @@
         <v>5</v>
       </c>
       <c r="B46">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D46" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E46" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I46" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
@@ -4228,49 +4203,49 @@
       </c>
       <c r="J46" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="K46" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>NA Les Méthos précieux</v>
+        <v>Marlène Savard</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J47" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="K47" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Stéphane Mongeau</v>
+        <v>NA Les Méthos précieux</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -4278,25 +4253,25 @@
         <v>6</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D48" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="E48" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="F48" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I48" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
@@ -4304,11 +4279,11 @@
       </c>
       <c r="J48" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K48" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Pierre-Olivier Julien</v>
+        <v>Stéphane Mongeau</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -4316,25 +4291,25 @@
         <v>6</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D49" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E49" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F49" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I49" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
@@ -4342,11 +4317,11 @@
       </c>
       <c r="J49" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K49" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Julien Bérard-Chagnon</v>
+        <v>Pierre-Olivier Julien</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -4354,25 +4329,25 @@
         <v>6</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="D50" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="E50" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="F50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
@@ -4380,11 +4355,11 @@
       </c>
       <c r="J50" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K50" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Patrick Charbonneau</v>
+        <v>Julien Bérard-Chagnon</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -4392,25 +4367,25 @@
         <v>6</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="D51" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="E51" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I51" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
@@ -4418,11 +4393,11 @@
       </c>
       <c r="J51" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K51" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Keven Bosa</v>
+        <v>Patrick Charbonneau</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -4430,25 +4405,25 @@
         <v>6</v>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D52" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I52" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
@@ -4456,11 +4431,11 @@
       </c>
       <c r="J52" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K52" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Étienne Rassart</v>
+        <v>Keven Bosa</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -4468,19 +4443,19 @@
         <v>6</v>
       </c>
       <c r="B53">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="D53" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E53" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -4494,11 +4469,11 @@
       </c>
       <c r="J53" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K53" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Daphné Allard Gervais</v>
+        <v>Étienne Rassart</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -4506,19 +4481,19 @@
         <v>6</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D54" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E54" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -4532,11 +4507,11 @@
       </c>
       <c r="J54" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K54" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Emy Bourdages</v>
+        <v>Daphné Allard Gervais</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -4544,19 +4519,19 @@
         <v>6</v>
       </c>
       <c r="B55">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D55" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -4570,11 +4545,11 @@
       </c>
       <c r="J55" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K55" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>David Binet</v>
+        <v>Emy Bourdages</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -4582,19 +4557,19 @@
         <v>6</v>
       </c>
       <c r="B56">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D56" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E56" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -4608,11 +4583,11 @@
       </c>
       <c r="J56" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K56" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Absent Absent</v>
+        <v>David Binet</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -4620,19 +4595,19 @@
         <v>6</v>
       </c>
       <c r="B57">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="E57" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -4646,11 +4621,11 @@
       </c>
       <c r="J57" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K57" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>François Sergerie</v>
+        <v>Absent Absent</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -4658,19 +4633,19 @@
         <v>6</v>
       </c>
       <c r="B58">
-        <v>12</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>152</v>
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" t="s">
+        <v>48</v>
+      </c>
+      <c r="E58" t="s">
+        <v>48</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -4684,11 +4659,11 @@
       </c>
       <c r="J58" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K58" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Arnaud Bouchard-Santerre</v>
+        <v>François Sergerie</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -4696,19 +4671,19 @@
         <v>6</v>
       </c>
       <c r="B59">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="D59" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -4722,31 +4697,31 @@
       </c>
       <c r="J59" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="K59" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>NA Les 12e meilleurs</v>
+        <v>Arnaud Bouchard-Santerre</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C60" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="E60" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="F60" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -4756,15 +4731,15 @@
       </c>
       <c r="I60" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J60" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="K60" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Philippe Bérubé</v>
+        <v>NA Les 12e meilleurs</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4772,25 +4747,25 @@
         <v>7</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D61" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E61" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F61" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I61" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
@@ -4798,11 +4773,11 @@
       </c>
       <c r="J61" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K61" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Tony Labillois</v>
+        <v>Philippe Bérubé</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4810,25 +4785,25 @@
         <v>7</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D62" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E62" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F62" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G62">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I62" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
@@ -4836,11 +4811,11 @@
       </c>
       <c r="J62" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K62" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Éric Caron-Malenfant</v>
+        <v>Tony Labillois</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4848,25 +4823,25 @@
         <v>7</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D63" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="E63" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="F63" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G63">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
@@ -4874,11 +4849,11 @@
       </c>
       <c r="J63" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K63" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Pierre Galarneau</v>
+        <v>Éric Caron-Malenfant</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4886,25 +4861,25 @@
         <v>7</v>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D64" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="E64" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G64">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I64" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
@@ -4912,11 +4887,11 @@
       </c>
       <c r="J64" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K64" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Félix Labrecque-Synnott</v>
+        <v>Pierre Galarneau</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4924,19 +4899,19 @@
         <v>7</v>
       </c>
       <c r="B65">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="D65" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E65" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -4950,11 +4925,11 @@
       </c>
       <c r="J65" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K65" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Danielle Turpin</v>
+        <v>Félix Labrecque-Synnott</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -4962,19 +4937,19 @@
         <v>7</v>
       </c>
       <c r="B66">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D66" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E66" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -4988,11 +4963,11 @@
       </c>
       <c r="J66" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K66" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>James Falconer</v>
+        <v>Danielle Turpin</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -5000,19 +4975,19 @@
         <v>7</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D67" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E67" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -5026,11 +5001,11 @@
       </c>
       <c r="J67" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K67" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Absent Absent</v>
+        <v>James Falconer</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -5038,19 +5013,19 @@
         <v>7</v>
       </c>
       <c r="B68">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E68" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -5064,11 +5039,11 @@
       </c>
       <c r="J68" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K68" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Catherine NA</v>
+        <v>Absent Absent</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -5076,19 +5051,19 @@
         <v>7</v>
       </c>
       <c r="B69">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D69" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E69" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -5102,11 +5077,11 @@
       </c>
       <c r="J69" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K69" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Louis NA</v>
+        <v>Catherine NA</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -5114,19 +5089,19 @@
         <v>7</v>
       </c>
       <c r="B70">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C70" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="D70" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -5140,11 +5115,11 @@
       </c>
       <c r="J70" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K70" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Étienne Lemyre (Faciles)</v>
+        <v>Louis NA</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -5152,19 +5127,19 @@
         <v>7</v>
       </c>
       <c r="B71">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="D71" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="E71" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -5178,11 +5153,11 @@
       </c>
       <c r="J71" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K71" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Élizabeth LeBlanc</v>
+        <v>Étienne Lemyre (Faciles)</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -5190,19 +5165,19 @@
         <v>7</v>
       </c>
       <c r="B72">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="D72" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -5216,353 +5191,161 @@
       </c>
       <c r="J72" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="K72" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>NA Les Faciles à cuire</v>
+        <v>Élizabeth LeBlanc</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C73" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="E73" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="F73" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J73" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="K73" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Stéphanie Audet-Brazeau</v>
+        <v>NA Les Faciles à cuire</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>8</v>
-      </c>
-      <c r="B74">
-        <v>2</v>
-      </c>
-      <c r="C74" t="s">
-        <v>123</v>
-      </c>
-      <c r="D74" t="s">
-        <v>124</v>
-      </c>
-      <c r="E74" t="s">
-        <v>124</v>
-      </c>
-      <c r="F74" t="s">
-        <v>27</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="H74">
-        <v>4</v>
-      </c>
       <c r="I74" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J74" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K74" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Julia Colpron</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>8</v>
-      </c>
-      <c r="B75">
-        <v>3</v>
-      </c>
-      <c r="C75" t="s">
-        <v>125</v>
-      </c>
-      <c r="D75" t="s">
-        <v>126</v>
-      </c>
-      <c r="E75" t="s">
-        <v>126</v>
-      </c>
-      <c r="F75" t="s">
-        <v>27</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75">
-        <v>2</v>
-      </c>
       <c r="I75" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J75" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K75" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Isabelle Gamache</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>8</v>
-      </c>
-      <c r="B76">
-        <v>4</v>
-      </c>
-      <c r="C76" t="s">
-        <v>127</v>
-      </c>
-      <c r="D76" t="s">
-        <v>30</v>
-      </c>
-      <c r="E76" t="s">
-        <v>30</v>
-      </c>
-      <c r="F76" t="s">
-        <v>27</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-      <c r="H76">
-        <v>3</v>
-      </c>
       <c r="I76" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J76" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K76" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Catherine Lachance</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>8</v>
-      </c>
-      <c r="B77">
-        <v>5</v>
-      </c>
-      <c r="C77" t="s">
-        <v>128</v>
-      </c>
-      <c r="D77" t="s">
-        <v>129</v>
-      </c>
-      <c r="E77" t="s">
-        <v>129</v>
-      </c>
-      <c r="F77" t="s">
-        <v>27</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
       <c r="I77" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J77" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K77" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Francis Vilandré</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>8</v>
-      </c>
-      <c r="B78">
-        <v>6</v>
-      </c>
-      <c r="C78" t="s">
-        <v>146</v>
-      </c>
-      <c r="D78" t="s">
-        <v>96</v>
-      </c>
-      <c r="E78" t="s">
-        <v>96</v>
-      </c>
-      <c r="F78" t="s">
-        <v>27</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
       <c r="I78" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J78" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K78" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Julie Sarrazin</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>8</v>
-      </c>
-      <c r="B79">
-        <v>7</v>
-      </c>
-      <c r="C79" t="s">
-        <v>20</v>
-      </c>
-      <c r="D79" t="s">
-        <v>20</v>
-      </c>
-      <c r="E79" t="s">
-        <v>20</v>
-      </c>
-      <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
       <c r="I79" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J79" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K79" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Absent Absent</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>8</v>
-      </c>
-      <c r="B80">
-        <v>8</v>
-      </c>
-      <c r="C80" t="s">
-        <v>151</v>
-      </c>
-      <c r="D80" t="s">
-        <v>145</v>
-      </c>
-      <c r="E80" t="s">
-        <v>145</v>
-      </c>
-      <c r="F80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
       <c r="I80" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J80" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K80" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>Émilie Fougères</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>8</v>
-      </c>
-      <c r="B81">
-        <v>99</v>
-      </c>
-      <c r="C81" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" t="s">
-        <v>147</v>
-      </c>
-      <c r="E81" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="81" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I81" s="1">
         <f>tblJoueurs[[#This Row],[NoÉquipe]]</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J81" s="1">
         <f>tblJoueurs[[#This Row],[NoJoueur]]</f>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K81" s="1" t="str">
         <f>tblJoueurs[[#This Row],[PrénomJoueur]] &amp; " " &amp;tblJoueurs[[#This Row],[NomJoueur]]</f>
-        <v>NA Les Génies de la traduction</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
   </sheetData>
@@ -5571,6 +5354,1926 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>99</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>99</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" t="s">
+        <v>89</v>
+      </c>
+      <c r="F45" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" t="s">
+        <v>91</v>
+      </c>
+      <c r="F46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" t="s">
+        <v>93</v>
+      </c>
+      <c r="F47" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" t="s">
+        <v>133</v>
+      </c>
+      <c r="E49" t="s">
+        <v>133</v>
+      </c>
+      <c r="F49" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>99</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" t="s">
+        <v>136</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51" t="s">
+        <v>46</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52" t="s">
+        <v>96</v>
+      </c>
+      <c r="E52" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" t="s">
+        <v>25</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>6</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" t="s">
+        <v>99</v>
+      </c>
+      <c r="E54" t="s">
+        <v>99</v>
+      </c>
+      <c r="F54" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>6</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>6</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>6</v>
+      </c>
+      <c r="B57">
+        <v>99</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>136</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>7</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>101</v>
+      </c>
+      <c r="D58" t="s">
+        <v>102</v>
+      </c>
+      <c r="E58" t="s">
+        <v>102</v>
+      </c>
+      <c r="F58" t="s">
+        <v>46</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>7</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E59" t="s">
+        <v>104</v>
+      </c>
+      <c r="F59" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>7</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60" t="s">
+        <v>106</v>
+      </c>
+      <c r="E60" t="s">
+        <v>106</v>
+      </c>
+      <c r="F60" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>7</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>107</v>
+      </c>
+      <c r="D61" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" t="s">
+        <v>64</v>
+      </c>
+      <c r="F61" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>7</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62" t="s">
+        <v>109</v>
+      </c>
+      <c r="E62" t="s">
+        <v>109</v>
+      </c>
+      <c r="F62" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>7</v>
+      </c>
+      <c r="B63">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>7</v>
+      </c>
+      <c r="B64">
+        <v>99</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>136</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>110</v>
+      </c>
+      <c r="D65" t="s">
+        <v>111</v>
+      </c>
+      <c r="E65" t="s">
+        <v>111</v>
+      </c>
+      <c r="F65" t="s">
+        <v>46</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66" t="s">
+        <v>113</v>
+      </c>
+      <c r="E66" t="s">
+        <v>113</v>
+      </c>
+      <c r="F66" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>114</v>
+      </c>
+      <c r="D67" t="s">
+        <v>115</v>
+      </c>
+      <c r="E67" t="s">
+        <v>115</v>
+      </c>
+      <c r="F67" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>116</v>
+      </c>
+      <c r="D68" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>117</v>
+      </c>
+      <c r="D69" t="s">
+        <v>118</v>
+      </c>
+      <c r="E69" t="s">
+        <v>118</v>
+      </c>
+      <c r="F69" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>140</v>
+      </c>
+      <c r="D70" t="s">
+        <v>134</v>
+      </c>
+      <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>7</v>
+      </c>
+      <c r="B71">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>138</v>
+      </c>
+      <c r="D71" t="s">
+        <v>139</v>
+      </c>
+      <c r="E71" t="s">
+        <v>139</v>
+      </c>
+      <c r="F71" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>6</v>
+      </c>
+      <c r="B72">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>137</v>
+      </c>
+      <c r="D72" t="s">
+        <v>48</v>
+      </c>
+      <c r="E72" t="s">
+        <v>48</v>
+      </c>
+      <c r="F72" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>6</v>
+      </c>
+      <c r="B73">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>142</v>
+      </c>
+      <c r="D73" t="s">
+        <v>141</v>
+      </c>
+      <c r="E73" t="s">
+        <v>141</v>
+      </c>
+      <c r="F73" t="s">
+        <v>19</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Saison23/DonnéesCSV/Saisie des points.xlsx
+++ b/Saison23/DonnéesCSV/Saisie des points.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="150">
   <si>
     <t xml:space="preserve">Saisi des points</t>
   </si>
@@ -178,12 +178,18 @@
     <t xml:space="preserve">Émilie</t>
   </si>
   <si>
-    <t xml:space="preserve">?</t>
+    <t xml:space="preserve">Loiselle</t>
   </si>
   <si>
     <t xml:space="preserve">Marc-Olivier</t>
   </si>
   <si>
+    <t xml:space="preserve">Sarrette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian Frédéric</t>
+  </si>
+  <si>
     <t xml:space="preserve">Équipe</t>
   </si>
   <si>
@@ -229,6 +235,15 @@
     <t xml:space="preserve">Marie-Hélène</t>
   </si>
   <si>
+    <t xml:space="preserve">Parenteau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lecavalier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cindy</t>
+  </si>
+  <si>
     <t xml:space="preserve">Switzer</t>
   </si>
   <si>
@@ -304,9 +319,6 @@
     <t xml:space="preserve">Stéphane</t>
   </si>
   <si>
-    <t xml:space="preserve">Parenteau</t>
-  </si>
-  <si>
     <t xml:space="preserve">Michel</t>
   </si>
   <si>
@@ -464,12 +476,6 @@
   </si>
   <si>
     <t xml:space="preserve">Élizabeth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christian</t>
   </si>
 </sst>
 </file>
@@ -479,12 +485,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -507,6 +514,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -514,6 +522,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -521,13 +530,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -535,6 +538,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -599,7 +603,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -624,11 +628,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -904,7 +908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -912,7 +916,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -936,7 +940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -965,7 +969,7 @@
         <v>22,3,1,120</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F5" s="1" t="n">
         <v>22</v>
       </c>
@@ -983,7 +987,7 @@
         <v>22,3,2,50</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F6" s="1" t="n">
         <v>22</v>
       </c>
@@ -1001,7 +1005,7 @@
         <v>22,3,3,70</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1031,7 +1035,7 @@
         <v>22,3,4,50</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <f aca="false" t="array" ref="A8:C30">_xlfn._xlws.FILTER(tblJoueurs!I:K,(tblJoueurs!I:I=$C$3)+(tblJoueurs!I:I=$C$4),"")</f>
         <v>3</v>
@@ -1062,7 +1066,7 @@
         <v>22,3,99,10</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>3</v>
       </c>
@@ -1092,7 +1096,7 @@
         <v>22,7,1,100</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>3</v>
       </c>
@@ -1122,7 +1126,7 @@
         <v>22,7,2,35</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>3</v>
       </c>
@@ -1152,7 +1156,7 @@
         <v>22,7,3,120</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>3</v>
       </c>
@@ -1180,7 +1184,7 @@
         <v>22,7,4,85</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>3</v>
       </c>
@@ -1208,7 +1212,7 @@
         <v>22,7,99,40</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>3</v>
       </c>
@@ -1220,7 +1224,7 @@
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>3</v>
       </c>
@@ -1251,7 +1255,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>7</v>
       </c>
@@ -1277,7 +1281,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>7</v>
       </c>
@@ -1307,7 +1311,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>7</v>
       </c>
@@ -1337,7 +1341,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>7</v>
       </c>
@@ -1367,7 +1371,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>7</v>
       </c>
@@ -1395,7 +1399,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>7</v>
       </c>
@@ -1423,7 +1427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>7</v>
       </c>
@@ -1451,7 +1455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>7</v>
       </c>
@@ -1479,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>7</v>
       </c>
@@ -1507,7 +1511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>7</v>
       </c>
@@ -1535,7 +1539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>7</v>
       </c>
@@ -1563,7 +1567,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>7</v>
       </c>
@@ -1591,7 +1595,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>7</v>
       </c>
@@ -1621,7 +1625,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="e">
         <v>#N/A</v>
       </c>
@@ -1649,7 +1653,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="5"/>
       <c r="F31" s="1" t="n">
         <f aca="false">$B$2</f>
@@ -1668,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="5"/>
       <c r="F32" s="1" t="n">
         <f aca="false">$B$2</f>
@@ -1687,7 +1691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="5"/>
       <c r="F33" s="1" t="n">
         <f aca="false">$B$2</f>
@@ -1706,7 +1710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F34" s="1" t="n">
         <f aca="false">$B$2</f>
         <v>22</v>
@@ -1724,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F35" s="1" t="n">
         <f aca="false">$B$2</f>
         <v>22</v>
@@ -1742,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F36" s="1" t="n">
         <f aca="false">$B$2</f>
         <v>22</v>
@@ -1760,7 +1764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F37" s="1" t="n">
         <f aca="false">$B$2</f>
         <v>22</v>
@@ -1778,7 +1782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F38" s="1" t="n">
         <f aca="false">$B$2</f>
         <v>22</v>
@@ -1796,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F39" s="1" t="n">
         <f aca="false">$B$2</f>
         <v>22</v>
@@ -1814,7 +1818,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F40" s="1" t="n">
         <f aca="false">$B$2</f>
         <v>22</v>
@@ -1832,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F41" s="1" t="n">
         <f aca="false">$B$2</f>
         <v>22</v>
@@ -1850,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F42" s="1" t="n">
         <f aca="false">$B$2</f>
         <v>22</v>
@@ -1868,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F43" s="1" t="n">
         <f aca="false">$B$2</f>
         <v>22</v>
@@ -1886,7 +1890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F44" s="1" t="n">
         <f aca="false">$B$2</f>
         <v>22</v>
@@ -1904,7 +1908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F45" s="1" t="n">
         <f aca="false">$B$2</f>
         <v>22</v>
@@ -1963,7 +1967,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
@@ -1980,7 +1984,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -1998,7 +2002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
@@ -2016,7 +2020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
@@ -2034,7 +2038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
@@ -2052,7 +2056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
@@ -2070,7 +2074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
@@ -2088,7 +2092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
@@ -2128,7 +2132,7 @@
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2148,7 +2152,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="25"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
@@ -2183,29 +2187,29 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="n">
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I2" s="1" t="n">
@@ -2224,29 +2228,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="n">
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I3" s="1" t="n">
@@ -2262,29 +2266,29 @@
         <v>Julia Colpron</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="n">
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I4" s="1" t="n">
@@ -2300,29 +2304,29 @@
         <v>Isabelle Gamache</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="n">
+      <c r="G5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I5" s="1" t="n">
@@ -2338,29 +2342,29 @@
         <v>Catherine Lachance</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="n">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="n">
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="n">
@@ -2376,29 +2380,29 @@
         <v>Francis Vilandré</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="n">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1" t="n">
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="1" t="n">
@@ -2427,29 +2431,29 @@
         <v>Julia</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1" t="n">
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="n">
@@ -2477,29 +2481,29 @@
         <v>Isabelle</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="n">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1" t="n">
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="1" t="n">
@@ -2527,29 +2531,29 @@
         <v>Catherine</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="n">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1" t="n">
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="1" t="n">
@@ -2562,7 +2566,7 @@
       </c>
       <c r="K10" s="1" t="str">
         <f aca="false">tblJoueurs!$D10 &amp; " " &amp;tblJoueurs!$C10</f>
-        <v>Marc-Olivier ?</v>
+        <v>Marc-Olivier Loiselle</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>1</v>
@@ -2577,29 +2581,29 @@
         <v>Francis</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="1" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1" t="n">
+      <c r="D11" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="1" t="n">
@@ -2608,11 +2612,11 @@
       </c>
       <c r="J11" s="1" t="n">
         <f aca="false">tblJoueurs!$B11</f>
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="K11" s="1" t="str">
         <f aca="false">tblJoueurs!$D11 &amp; " " &amp;tblJoueurs!$C11</f>
-        <v>NA Les Génies de la traduction</v>
+        <v>Christian Frédéric Sarrette</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>1</v>
@@ -2627,42 +2631,42 @@
         <v>Julie</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="1" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>1</v>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I12" s="1" t="n">
         <f aca="false">tblJoueurs!$A12</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1" t="n">
         <f aca="false">tblJoueurs!$B12</f>
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="K12" s="1" t="str">
         <f aca="false">tblJoueurs!$D12 &amp; " " &amp;tblJoueurs!$C12</f>
-        <v>Steeve Boisvert</v>
+        <v>NA Les Génies de la traduction</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>1</v>
@@ -2677,30 +2681,30 @@
         <v>Absent</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <v>0</v>
+      <c r="F13" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="I13" s="1" t="n">
         <f aca="false">tblJoueurs!$A13</f>
@@ -2708,11 +2712,11 @@
       </c>
       <c r="J13" s="1" t="n">
         <f aca="false">tblJoueurs!$B13</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1" t="str">
         <f aca="false">tblJoueurs!$D13 &amp; " " &amp;tblJoueurs!$C13</f>
-        <v>Samuel Perreault</v>
+        <v>Steeve Boisvert</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>1</v>
@@ -2727,30 +2731,30 @@
         <v>Émilie</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <v>4</v>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I14" s="1" t="n">
         <f aca="false">tblJoueurs!$A14</f>
@@ -2758,11 +2762,11 @@
       </c>
       <c r="J14" s="1" t="n">
         <f aca="false">tblJoueurs!$B14</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K14" s="1" t="str">
         <f aca="false">tblJoueurs!$D14 &amp; " " &amp;tblJoueurs!$C14</f>
-        <v>Jonathan Baillargeon</v>
+        <v>Samuel Perreault</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>1</v>
@@ -2771,36 +2775,36 @@
         <v>9</v>
       </c>
       <c r="P14" s="1" t="str">
-        <v>?</v>
+        <v>Loiselle</v>
       </c>
       <c r="Q14" s="1" t="str">
         <v>Marc-Olivier</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1" t="n">
-        <v>2</v>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="I15" s="1" t="n">
         <f aca="false">tblJoueurs!$A15</f>
@@ -2808,37 +2812,37 @@
       </c>
       <c r="J15" s="1" t="n">
         <f aca="false">tblJoueurs!$B15</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K15" s="1" t="str">
         <f aca="false">tblJoueurs!$D15 &amp; " " &amp;tblJoueurs!$C15</f>
-        <v>Vincent Hardy</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1" t="s">
+        <v>Jonathan Baillargeon</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <v>3</v>
+      <c r="F16" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="I16" s="1" t="n">
         <f aca="false">tblJoueurs!$A16</f>
@@ -2846,37 +2850,37 @@
       </c>
       <c r="J16" s="1" t="n">
         <f aca="false">tblJoueurs!$B16</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K16" s="1" t="str">
         <f aca="false">tblJoueurs!$D16 &amp; " " &amp;tblJoueurs!$C16</f>
-        <v>Nicole Paquin</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1" t="s">
+        <v>Vincent Hardy</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1" t="n">
-        <v>0</v>
+      <c r="G17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="I17" s="1" t="n">
         <f aca="false">tblJoueurs!$A17</f>
@@ -2884,36 +2888,36 @@
       </c>
       <c r="J17" s="1" t="n">
         <f aca="false">tblJoueurs!$B17</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K17" s="1" t="str">
         <f aca="false">tblJoueurs!$D17 &amp; " " &amp;tblJoueurs!$C17</f>
-        <v>Franklin Assoumou</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
+        <v>Nicole Paquin</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1" t="n">
+      <c r="F18" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="1" t="n">
@@ -2922,11 +2926,11 @@
       </c>
       <c r="J18" s="1" t="n">
         <f aca="false">tblJoueurs!$B18</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K18" s="1" t="str">
         <f aca="false">tblJoueurs!$D18 &amp; " " &amp;tblJoueurs!$C18</f>
-        <v>Marie-Hélène Sarrasin</v>
+        <v>Franklin Assoumou</v>
       </c>
       <c r="M18" s="1" t="n">
         <f aca="false" t="array" ref="M18:O26">_xlfn._xlws.FILTER(J:L,I:I=1)</f>
@@ -2939,29 +2943,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1" t="n">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="1" t="n">
@@ -2970,11 +2974,11 @@
       </c>
       <c r="J19" s="1" t="n">
         <f aca="false">tblJoueurs!$B19</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K19" s="1" t="str">
         <f aca="false">tblJoueurs!$D19 &amp; " " &amp;tblJoueurs!$C19</f>
-        <v>Absent Absent</v>
+        <v>Marie-Hélène Sarrasin</v>
       </c>
       <c r="M19" s="1" t="n">
         <v>2</v>
@@ -2986,29 +2990,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1" t="n">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="1" t="n">
@@ -3017,11 +3021,11 @@
       </c>
       <c r="J20" s="1" t="n">
         <f aca="false">tblJoueurs!$B20</f>
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="K20" s="1" t="str">
         <f aca="false">tblJoueurs!$D20 &amp; " " &amp;tblJoueurs!$C20</f>
-        <v>NA Les Bons Perdants</v>
+        <v>Absent Absent</v>
       </c>
       <c r="M20" s="1" t="n">
         <v>3</v>
@@ -3033,42 +3037,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1" t="n">
-        <v>3</v>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I21" s="1" t="n">
         <f aca="false">tblJoueurs!$A21</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21" s="1" t="n">
         <f aca="false">tblJoueurs!$B21</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K21" s="1" t="str">
         <f aca="false">tblJoueurs!$D21 &amp; " " &amp;tblJoueurs!$C21</f>
-        <v>Mark Switzer</v>
+        <v>Vincent Parenteau</v>
       </c>
       <c r="M21" s="1" t="n">
         <v>4</v>
@@ -3080,42 +3084,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="1" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="D22" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1" t="n">
-        <v>1</v>
+      <c r="G22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I22" s="1" t="n">
         <f aca="false">tblJoueurs!$A22</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J22" s="1" t="n">
         <f aca="false">tblJoueurs!$B22</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K22" s="1" t="str">
         <f aca="false">tblJoueurs!$D22 &amp; " " &amp;tblJoueurs!$C22</f>
-        <v>Pierre Parent</v>
+        <v>Cindy Lecavalier</v>
       </c>
       <c r="M22" s="1" t="n">
         <v>5</v>
@@ -3127,42 +3131,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1" t="n">
-        <v>2</v>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I23" s="1" t="n">
         <f aca="false">tblJoueurs!$A23</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J23" s="1" t="n">
         <f aca="false">tblJoueurs!$B23</f>
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="K23" s="1" t="str">
         <f aca="false">tblJoueurs!$D23 &amp; " " &amp;tblJoueurs!$C23</f>
-        <v>François Rivest</v>
+        <v>NA Les Bons Perdants</v>
       </c>
       <c r="M23" s="1" t="n">
         <v>6</v>
@@ -3174,30 +3178,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C24" s="1" t="s">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1" t="n">
-        <v>0</v>
+      <c r="E24" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="I24" s="1" t="n">
         <f aca="false">tblJoueurs!$A24</f>
@@ -3205,11 +3209,11 @@
       </c>
       <c r="J24" s="1" t="n">
         <f aca="false">tblJoueurs!$B24</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K24" s="1" t="str">
         <f aca="false">tblJoueurs!$D24 &amp; " " &amp;tblJoueurs!$C24</f>
-        <v>André Delage</v>
+        <v>Mark Switzer</v>
       </c>
       <c r="M24" s="1" t="n">
         <v>7</v>
@@ -3221,30 +3225,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="C25" s="1" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1" t="n">
-        <v>0</v>
+      <c r="E25" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="I25" s="1" t="n">
         <f aca="false">tblJoueurs!$A25</f>
@@ -3252,11 +3256,11 @@
       </c>
       <c r="J25" s="1" t="n">
         <f aca="false">tblJoueurs!$B25</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K25" s="1" t="str">
         <f aca="false">tblJoueurs!$D25 &amp; " " &amp;tblJoueurs!$C25</f>
-        <v>Louise Maheux</v>
+        <v>Pierre Parent</v>
       </c>
       <c r="M25" s="1" t="n">
         <v>8</v>
@@ -3268,30 +3272,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="C26" s="1" t="s">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1" t="n">
-        <v>0</v>
+      <c r="E26" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="I26" s="1" t="n">
         <f aca="false">tblJoueurs!$A26</f>
@@ -3299,45 +3303,45 @@
       </c>
       <c r="J26" s="1" t="n">
         <f aca="false">tblJoueurs!$B26</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K26" s="1" t="str">
         <f aca="false">tblJoueurs!$D26 &amp; " " &amp;tblJoueurs!$C26</f>
-        <v>Yanick Aubé</v>
+        <v>François Rivest</v>
       </c>
       <c r="M26" s="1" t="n">
         <v>9</v>
       </c>
       <c r="N26" s="1" t="str">
-        <v>Marc-Olivier ?</v>
+        <v>Marc-Olivier Loiselle</v>
       </c>
       <c r="O26" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1" t="s">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1" t="n">
+      <c r="E27" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="1" t="n">
@@ -3346,36 +3350,36 @@
       </c>
       <c r="J27" s="1" t="n">
         <f aca="false">tblJoueurs!$B27</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K27" s="1" t="str">
         <f aca="false">tblJoueurs!$D27 &amp; " " &amp;tblJoueurs!$C27</f>
-        <v>Jean-Michel M.</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="1" t="s">
+        <v>André Delage</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" s="1" t="n">
+      <c r="G28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="1" t="n">
@@ -3384,36 +3388,36 @@
       </c>
       <c r="J28" s="1" t="n">
         <f aca="false">tblJoueurs!$B28</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K28" s="1" t="str">
         <f aca="false">tblJoueurs!$D28 &amp; " " &amp;tblJoueurs!$C28</f>
-        <v>Absent Absent</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1" t="n">
+        <v>Louise Maheux</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="1" t="n">
@@ -3422,151 +3426,151 @@
       </c>
       <c r="J29" s="1" t="n">
         <f aca="false">tblJoueurs!$B29</f>
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="K29" s="1" t="str">
         <f aca="false">tblJoueurs!$D29 &amp; " " &amp;tblJoueurs!$C29</f>
-        <v>NA Les érudits en gerbe</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" s="1" t="n">
-        <v>1</v>
+        <v>Yanick Aubé</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I30" s="1" t="n">
         <f aca="false">tblJoueurs!$A30</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J30" s="1" t="n">
         <f aca="false">tblJoueurs!$B30</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K30" s="1" t="str">
         <f aca="false">tblJoueurs!$D30 &amp; " " &amp;tblJoueurs!$C30</f>
-        <v>Sébastien Landry</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1" t="n">
-        <v>4</v>
+        <v>Jean-Michel M.</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I31" s="1" t="n">
         <f aca="false">tblJoueurs!$A31</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J31" s="1" t="n">
         <f aca="false">tblJoueurs!$B31</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K31" s="1" t="str">
         <f aca="false">tblJoueurs!$D31 &amp; " " &amp;tblJoueurs!$C31</f>
-        <v>Frédéric Bédard</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H32" s="1" t="n">
-        <v>2</v>
+        <v>Absent Absent</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I32" s="1" t="n">
         <f aca="false">tblJoueurs!$A32</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J32" s="1" t="n">
         <f aca="false">tblJoueurs!$B32</f>
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="K32" s="1" t="str">
         <f aca="false">tblJoueurs!$D32 &amp; " " &amp;tblJoueurs!$C32</f>
-        <v>Geneviève Ouellet</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C33" s="1" t="s">
+        <v>NA Les érudits en gerbe</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33" s="1" t="n">
-        <v>0</v>
+      <c r="E33" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="I33" s="1" t="n">
         <f aca="false">tblJoueurs!$A33</f>
@@ -3574,37 +3578,37 @@
       </c>
       <c r="J33" s="1" t="n">
         <f aca="false">tblJoueurs!$B33</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K33" s="1" t="str">
         <f aca="false">tblJoueurs!$D33 &amp; " " &amp;tblJoueurs!$C33</f>
-        <v>Samuel Vézina</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="C34" s="1" t="s">
+        <v>Sébastien Landry</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" s="1" t="n">
-        <v>0</v>
+      <c r="F34" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="I34" s="1" t="n">
         <f aca="false">tblJoueurs!$A34</f>
@@ -3612,37 +3616,37 @@
       </c>
       <c r="J34" s="1" t="n">
         <f aca="false">tblJoueurs!$B34</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K34" s="1" t="str">
         <f aca="false">tblJoueurs!$D34 &amp; " " &amp;tblJoueurs!$C34</f>
-        <v>Jean-Dominique Morency</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="C35" s="1" t="s">
+        <v>Frédéric Bédard</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H35" s="1" t="n">
-        <v>3</v>
+      <c r="F35" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="I35" s="1" t="n">
         <f aca="false">tblJoueurs!$A35</f>
@@ -3650,36 +3654,36 @@
       </c>
       <c r="J35" s="1" t="n">
         <f aca="false">tblJoueurs!$B35</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K35" s="1" t="str">
         <f aca="false">tblJoueurs!$D35 &amp; " " &amp;tblJoueurs!$C35</f>
-        <v>Stéphane Martineau</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B36" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="C36" s="1" t="s">
+        <v>Geneviève Ouellet</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C36" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H36" s="1" t="n">
+      <c r="D36" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I36" s="1" t="n">
@@ -3688,36 +3692,36 @@
       </c>
       <c r="J36" s="1" t="n">
         <f aca="false">tblJoueurs!$B36</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K36" s="1" t="str">
         <f aca="false">tblJoueurs!$D36 &amp; " " &amp;tblJoueurs!$C36</f>
-        <v>Michel Parenteau</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="C37" s="1" t="s">
+        <v>Samuel Vézina</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F37" s="1" t="s">
+      <c r="E37" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" s="1" t="n">
+      <c r="G37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I37" s="1" t="n">
@@ -3726,37 +3730,37 @@
       </c>
       <c r="J37" s="1" t="n">
         <f aca="false">tblJoueurs!$B37</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K37" s="1" t="str">
         <f aca="false">tblJoueurs!$D37 &amp; " " &amp;tblJoueurs!$C37</f>
-        <v>Caroline Pelletier</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B38" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F38" s="1" t="s">
+        <v>Jean-Dominique Morency</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" s="1" t="n">
-        <v>0</v>
+      <c r="G38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="I38" s="1" t="n">
         <f aca="false">tblJoueurs!$A38</f>
@@ -3764,36 +3768,36 @@
       </c>
       <c r="J38" s="1" t="n">
         <f aca="false">tblJoueurs!$B38</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K38" s="1" t="str">
         <f aca="false">tblJoueurs!$D38 &amp; " " &amp;tblJoueurs!$C38</f>
-        <v>Absent Absent</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B39" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" s="1" t="n">
+        <v>Stéphane Martineau</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I39" s="1" t="n">
@@ -3802,151 +3806,151 @@
       </c>
       <c r="J39" s="1" t="n">
         <f aca="false">tblJoueurs!$B39</f>
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="K39" s="1" t="str">
         <f aca="false">tblJoueurs!$D39 &amp; " " &amp;tblJoueurs!$C39</f>
-        <v>NA Les Herbizarres</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B40" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" s="1" t="n">
-        <v>4</v>
+        <v>Michel Parenteau</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I40" s="1" t="n">
         <f aca="false">tblJoueurs!$A40</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J40" s="1" t="n">
         <f aca="false">tblJoueurs!$B40</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K40" s="1" t="str">
         <f aca="false">tblJoueurs!$D40 &amp; " " &amp;tblJoueurs!$C40</f>
-        <v>Bruno Lapierre</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B41" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" s="1" t="n">
-        <v>1</v>
+        <v>Caroline Pelletier</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I41" s="1" t="n">
         <f aca="false">tblJoueurs!$A41</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J41" s="1" t="n">
         <f aca="false">tblJoueurs!$B41</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K41" s="1" t="str">
         <f aca="false">tblJoueurs!$D41 &amp; " " &amp;tblJoueurs!$C41</f>
-        <v>Julie Bernier</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B42" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C42" s="1" t="s">
+        <v>Absent Absent</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B42" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" s="1" t="n">
-        <v>2</v>
+      <c r="C42" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I42" s="1" t="n">
         <f aca="false">tblJoueurs!$A42</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J42" s="1" t="n">
         <f aca="false">tblJoueurs!$B42</f>
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="K42" s="1" t="str">
         <f aca="false">tblJoueurs!$D42 &amp; " " &amp;tblJoueurs!$C42</f>
-        <v>Sylvain Perron</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+        <v>NA Les Herbizarres</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B43" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="B43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G43" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" s="1" t="n">
-        <v>0</v>
+      <c r="E43" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="I43" s="1" t="n">
         <f aca="false">tblJoueurs!$A43</f>
@@ -3954,37 +3958,37 @@
       </c>
       <c r="J43" s="1" t="n">
         <f aca="false">tblJoueurs!$B43</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K43" s="1" t="str">
         <f aca="false">tblJoueurs!$D43 &amp; " " &amp;tblJoueurs!$C43</f>
-        <v>Martin Sirois</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+        <v>Bruno Lapierre</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B44" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G44" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H44" s="1" t="n">
-        <v>3</v>
+      <c r="B44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="I44" s="1" t="n">
         <f aca="false">tblJoueurs!$A44</f>
@@ -3992,37 +3996,37 @@
       </c>
       <c r="J44" s="1" t="n">
         <f aca="false">tblJoueurs!$B44</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K44" s="1" t="str">
         <f aca="false">tblJoueurs!$D44 &amp; " " &amp;tblJoueurs!$C44</f>
-        <v>Didier Garriguet</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+        <v>Julie Bernier</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B45" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G45" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H45" s="1" t="n">
-        <v>0</v>
+      <c r="B45" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="I45" s="1" t="n">
         <f aca="false">tblJoueurs!$A45</f>
@@ -4030,36 +4034,36 @@
       </c>
       <c r="J45" s="1" t="n">
         <f aca="false">tblJoueurs!$B45</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K45" s="1" t="str">
         <f aca="false">tblJoueurs!$D45 &amp; " " &amp;tblJoueurs!$C45</f>
-        <v>Jean-Sébastien Provencal</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+        <v>Sylvain Perron</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B46" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G46" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" s="1" t="n">
+      <c r="B46" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I46" s="1" t="n">
@@ -4068,36 +4072,36 @@
       </c>
       <c r="J46" s="1" t="n">
         <f aca="false">tblJoueurs!$B46</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K46" s="1" t="str">
         <f aca="false">tblJoueurs!$D46 &amp; " " &amp;tblJoueurs!$C46</f>
-        <v>Absent Absent</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+        <v>Martin Sirois</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B47" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="B47" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C47" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H47" s="1" t="n">
+      <c r="G47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I47" s="1" t="n">
@@ -4106,36 +4110,36 @@
       </c>
       <c r="J47" s="1" t="n">
         <f aca="false">tblJoueurs!$B47</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K47" s="1" t="str">
         <f aca="false">tblJoueurs!$D47 &amp; " " &amp;tblJoueurs!$C47</f>
-        <v>Marlène Savard</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+        <v>Didier Garriguet</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B48" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="B48" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C48" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F48" s="1" t="s">
+      <c r="D48" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="F48" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G48" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H48" s="1" t="n">
+      <c r="G48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I48" s="1" t="n">
@@ -4144,36 +4148,36 @@
       </c>
       <c r="J48" s="1" t="n">
         <f aca="false">tblJoueurs!$B48</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K48" s="1" t="str">
         <f aca="false">tblJoueurs!$D48 &amp; " " &amp;tblJoueurs!$C48</f>
-        <v>François Lavoie</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+        <v>Jean-Sébastien Provencal</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B49" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H49" s="1" t="n">
+      <c r="B49" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I49" s="1" t="n">
@@ -4182,151 +4186,151 @@
       </c>
       <c r="J49" s="1" t="n">
         <f aca="false">tblJoueurs!$B49</f>
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="K49" s="1" t="str">
         <f aca="false">tblJoueurs!$D49 &amp; " " &amp;tblJoueurs!$C49</f>
-        <v>NA Les Méthos précieux</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H50" s="1" t="n">
-        <v>1</v>
+        <v>Absent Absent</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="I50" s="1" t="n">
         <f aca="false">tblJoueurs!$A50</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J50" s="1" t="n">
         <f aca="false">tblJoueurs!$B50</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K50" s="1" t="str">
         <f aca="false">tblJoueurs!$D50 &amp; " " &amp;tblJoueurs!$C50</f>
-        <v>Stéphane Mongeau</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B51" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H51" s="1" t="n">
+        <v>Marlène Savard</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I51" s="1" t="n">
         <f aca="false">tblJoueurs!$A51</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J51" s="1" t="n">
         <f aca="false">tblJoueurs!$B51</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K51" s="1" t="str">
         <f aca="false">tblJoueurs!$D51 &amp; " " &amp;tblJoueurs!$C51</f>
-        <v>Pierre-Olivier Julien</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B52" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G52" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H52" s="1" t="n">
-        <v>2</v>
+        <v>François Lavoie</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I52" s="1" t="n">
         <f aca="false">tblJoueurs!$A52</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J52" s="1" t="n">
         <f aca="false">tblJoueurs!$B52</f>
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="K52" s="1" t="str">
         <f aca="false">tblJoueurs!$D52 &amp; " " &amp;tblJoueurs!$C52</f>
-        <v>Julien Bérard-Chagnon</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+        <v>NA Les Méthos précieux</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B53" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="B53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G53" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H53" s="1" t="n">
-        <v>0</v>
+      <c r="D53" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="I53" s="1" t="n">
         <f aca="false">tblJoueurs!$A53</f>
@@ -4334,37 +4338,37 @@
       </c>
       <c r="J53" s="1" t="n">
         <f aca="false">tblJoueurs!$B53</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K53" s="1" t="str">
         <f aca="false">tblJoueurs!$D53 &amp; " " &amp;tblJoueurs!$C53</f>
-        <v>Patrick Charbonneau</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+        <v>Stéphane Mongeau</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B54" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="B54" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G54" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H54" s="1" t="n">
-        <v>4</v>
+      <c r="E54" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="I54" s="1" t="n">
         <f aca="false">tblJoueurs!$A54</f>
@@ -4372,37 +4376,37 @@
       </c>
       <c r="J54" s="1" t="n">
         <f aca="false">tblJoueurs!$B54</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K54" s="1" t="str">
         <f aca="false">tblJoueurs!$D54 &amp; " " &amp;tblJoueurs!$C54</f>
-        <v>Keven Bosa</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+        <v>Pierre-Olivier Julien</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B55" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G55" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H55" s="1" t="n">
-        <v>0</v>
+      <c r="B55" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="I55" s="1" t="n">
         <f aca="false">tblJoueurs!$A55</f>
@@ -4410,36 +4414,36 @@
       </c>
       <c r="J55" s="1" t="n">
         <f aca="false">tblJoueurs!$B55</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K55" s="1" t="str">
         <f aca="false">tblJoueurs!$D55 &amp; " " &amp;tblJoueurs!$C55</f>
-        <v>Étienne Rassart</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+        <v>Julien Bérard-Chagnon</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B56" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G56" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H56" s="1" t="n">
+      <c r="B56" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I56" s="1" t="n">
@@ -4448,37 +4452,37 @@
       </c>
       <c r="J56" s="1" t="n">
         <f aca="false">tblJoueurs!$B56</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K56" s="1" t="str">
         <f aca="false">tblJoueurs!$D56 &amp; " " &amp;tblJoueurs!$C56</f>
-        <v>Daphné Allard Gervais</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+        <v>Patrick Charbonneau</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B57" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F57" s="1" t="s">
+      <c r="B57" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="F57" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G57" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H57" s="1" t="n">
-        <v>0</v>
+      <c r="G57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="I57" s="1" t="n">
         <f aca="false">tblJoueurs!$A57</f>
@@ -4486,36 +4490,36 @@
       </c>
       <c r="J57" s="1" t="n">
         <f aca="false">tblJoueurs!$B57</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K57" s="1" t="str">
         <f aca="false">tblJoueurs!$D57 &amp; " " &amp;tblJoueurs!$C57</f>
-        <v>Emy Bourdages</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+        <v>Keven Bosa</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B58" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F58" s="1" t="s">
+      <c r="B58" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="F58" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G58" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H58" s="1" t="n">
+      <c r="G58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I58" s="1" t="n">
@@ -4524,36 +4528,36 @@
       </c>
       <c r="J58" s="1" t="n">
         <f aca="false">tblJoueurs!$B58</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K58" s="1" t="str">
         <f aca="false">tblJoueurs!$D58 &amp; " " &amp;tblJoueurs!$C58</f>
-        <v>David Binet</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+        <v>Étienne Rassart</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B59" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F59" s="1" t="s">
+      <c r="B59" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="F59" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H59" s="1" t="n">
+      <c r="G59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I59" s="1" t="n">
@@ -4562,36 +4566,36 @@
       </c>
       <c r="J59" s="1" t="n">
         <f aca="false">tblJoueurs!$B59</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K59" s="1" t="str">
         <f aca="false">tblJoueurs!$D59 &amp; " " &amp;tblJoueurs!$C59</f>
-        <v>Absent Absent</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+        <v>Daphné Allard Gervais</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B60" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="B60" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C60" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F60" s="1" t="s">
+      <c r="D60" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="F60" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H60" s="1" t="n">
+      <c r="G60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I60" s="1" t="n">
@@ -4600,36 +4604,36 @@
       </c>
       <c r="J60" s="1" t="n">
         <f aca="false">tblJoueurs!$B60</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K60" s="1" t="str">
         <f aca="false">tblJoueurs!$D60 &amp; " " &amp;tblJoueurs!$C60</f>
-        <v>François Sergerie</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+        <v>Emy Bourdages</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B61" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D61" s="1" t="s">
+      <c r="B61" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C61" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F61" s="1" t="s">
+      <c r="D61" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="F61" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" s="1" t="n">
+      <c r="G61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I61" s="1" t="n">
@@ -4638,36 +4642,36 @@
       </c>
       <c r="J61" s="1" t="n">
         <f aca="false">tblJoueurs!$B61</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K61" s="1" t="str">
         <f aca="false">tblJoueurs!$D61 &amp; " " &amp;tblJoueurs!$C61</f>
-        <v>Arnaud Bouchard-Santerre</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+        <v>David Binet</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B62" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G62" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H62" s="1" t="n">
+      <c r="B62" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I62" s="1" t="n">
@@ -4676,151 +4680,151 @@
       </c>
       <c r="J62" s="1" t="n">
         <f aca="false">tblJoueurs!$B62</f>
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="K62" s="1" t="str">
         <f aca="false">tblJoueurs!$D62 &amp; " " &amp;tblJoueurs!$C62</f>
-        <v>NA Les 12e meilleurs</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B63" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D63" s="1" t="s">
+        <v>Absent Absent</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C63" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G63" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H63" s="1" t="n">
+      <c r="D63" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I63" s="1" t="n">
         <f aca="false">tblJoueurs!$A63</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J63" s="1" t="n">
         <f aca="false">tblJoueurs!$B63</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K63" s="1" t="str">
         <f aca="false">tblJoueurs!$D63 &amp; " " &amp;tblJoueurs!$C63</f>
-        <v>Philippe Bérubé</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B64" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C64" s="1" t="s">
+        <v>François Sergerie</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C64" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G64" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H64" s="1" t="n">
-        <v>4</v>
+      <c r="F64" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I64" s="1" t="n">
         <f aca="false">tblJoueurs!$A64</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J64" s="1" t="n">
         <f aca="false">tblJoueurs!$B64</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K64" s="1" t="str">
         <f aca="false">tblJoueurs!$D64 &amp; " " &amp;tblJoueurs!$C64</f>
-        <v>Tony Labillois</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B65" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H65" s="1" t="n">
-        <v>2</v>
+        <v>Arnaud Bouchard-Santerre</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I65" s="1" t="n">
         <f aca="false">tblJoueurs!$A65</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J65" s="1" t="n">
         <f aca="false">tblJoueurs!$B65</f>
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="K65" s="1" t="str">
         <f aca="false">tblJoueurs!$D65 &amp; " " &amp;tblJoueurs!$C65</f>
-        <v>Éric Caron-Malenfant</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B66" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G66" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H66" s="1" t="n">
-        <v>3</v>
+        <v>NA Les 12e meilleurs</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I66" s="1" t="n">
         <f aca="false">tblJoueurs!$A66</f>
@@ -4828,37 +4832,37 @@
       </c>
       <c r="J66" s="1" t="n">
         <f aca="false">tblJoueurs!$B66</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K66" s="1" t="str">
         <f aca="false">tblJoueurs!$D66 &amp; " " &amp;tblJoueurs!$C66</f>
-        <v>Pierre Galarneau</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B67" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="C67" s="1" t="s">
+        <v>Philippe Bérubé</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D67" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G67" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H67" s="1" t="n">
-        <v>0</v>
+      <c r="E67" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="I67" s="1" t="n">
         <f aca="false">tblJoueurs!$A67</f>
@@ -4866,37 +4870,37 @@
       </c>
       <c r="J67" s="1" t="n">
         <f aca="false">tblJoueurs!$B67</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K67" s="1" t="str">
         <f aca="false">tblJoueurs!$D67 &amp; " " &amp;tblJoueurs!$C67</f>
-        <v>Félix Labrecque-Synnott</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B68" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="C68" s="1" t="s">
+        <v>Tony Labillois</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D68" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G68" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H68" s="1" t="n">
-        <v>0</v>
+      <c r="E68" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="I68" s="1" t="n">
         <f aca="false">tblJoueurs!$A68</f>
@@ -4904,37 +4908,37 @@
       </c>
       <c r="J68" s="1" t="n">
         <f aca="false">tblJoueurs!$B68</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K68" s="1" t="str">
         <f aca="false">tblJoueurs!$D68 &amp; " " &amp;tblJoueurs!$C68</f>
-        <v>Danielle Turpin</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B69" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G69" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H69" s="1" t="n">
-        <v>0</v>
+        <v>Éric Caron-Malenfant</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="I69" s="1" t="n">
         <f aca="false">tblJoueurs!$A69</f>
@@ -4942,36 +4946,36 @@
       </c>
       <c r="J69" s="1" t="n">
         <f aca="false">tblJoueurs!$B69</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K69" s="1" t="str">
         <f aca="false">tblJoueurs!$D69 &amp; " " &amp;tblJoueurs!$C69</f>
-        <v>James Falconer</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B70" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F70" s="1" t="s">
+        <v>Pierre Galarneau</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="F70" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G70" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H70" s="1" t="n">
+      <c r="G70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I70" s="1" t="n">
@@ -4980,36 +4984,36 @@
       </c>
       <c r="J70" s="1" t="n">
         <f aca="false">tblJoueurs!$B70</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K70" s="1" t="str">
         <f aca="false">tblJoueurs!$D70 &amp; " " &amp;tblJoueurs!$C70</f>
-        <v>Absent Absent</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B71" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F71" s="1" t="s">
+        <v>Félix Labrecque-Synnott</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F71" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H71" s="1" t="n">
+      <c r="G71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I71" s="1" t="n">
@@ -5018,36 +5022,36 @@
       </c>
       <c r="J71" s="1" t="n">
         <f aca="false">tblJoueurs!$B71</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K71" s="1" t="str">
         <f aca="false">tblJoueurs!$D71 &amp; " " &amp;tblJoueurs!$C71</f>
-        <v>Catherine NA</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B72" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F72" s="1" t="s">
+        <v>Danielle Turpin</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="F72" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G72" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H72" s="1" t="n">
+      <c r="G72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I72" s="1" t="n">
@@ -5056,36 +5060,36 @@
       </c>
       <c r="J72" s="1" t="n">
         <f aca="false">tblJoueurs!$B72</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K72" s="1" t="str">
         <f aca="false">tblJoueurs!$D72 &amp; " " &amp;tblJoueurs!$C72</f>
-        <v>Louis NA</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B73" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F73" s="1" t="s">
+        <v>James Falconer</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F73" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G73" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H73" s="1" t="n">
+      <c r="G73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I73" s="1" t="n">
@@ -5094,36 +5098,36 @@
       </c>
       <c r="J73" s="1" t="n">
         <f aca="false">tblJoueurs!$B73</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K73" s="1" t="str">
         <f aca="false">tblJoueurs!$D73 &amp; " " &amp;tblJoueurs!$C73</f>
-        <v>Étienne Lemyre (Faciles)</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B74" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F74" s="1" t="s">
+        <v>Absent Absent</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F74" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G74" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H74" s="1" t="n">
+      <c r="G74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I74" s="1" t="n">
@@ -5132,36 +5136,36 @@
       </c>
       <c r="J74" s="1" t="n">
         <f aca="false">tblJoueurs!$B74</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K74" s="1" t="str">
         <f aca="false">tblJoueurs!$D74 &amp; " " &amp;tblJoueurs!$C74</f>
-        <v>Élizabeth LeBlanc</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B75" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" s="1" t="s">
+        <v>Catherine NA</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C75" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G75" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H75" s="1" t="n">
+      <c r="D75" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I75" s="1" t="n">
@@ -5170,104 +5174,128 @@
       </c>
       <c r="J75" s="1" t="n">
         <f aca="false">tblJoueurs!$B75</f>
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="K75" s="1" t="str">
         <f aca="false">tblJoueurs!$D75 &amp; " " &amp;tblJoueurs!$C75</f>
-        <v>NA Les Faciles à cuire</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B76" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G76" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H76" s="1" t="n">
+        <v>Louis NA</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G76" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I76" s="1" t="n">
         <f aca="false">tblJoueurs!$A76</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J76" s="1" t="n">
         <f aca="false">tblJoueurs!$B76</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K76" s="1" t="str">
         <f aca="false">tblJoueurs!$D76 &amp; " " &amp;tblJoueurs!$C76</f>
-        <v>Vincent P.</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B77" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F77" s="1" t="s">
+        <v>Étienne Lemyre (Faciles)</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="F77" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G77" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H77" s="1" t="n">
+      <c r="G77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I77" s="1" t="n">
         <f aca="false">tblJoueurs!$A77</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J77" s="1" t="n">
         <f aca="false">tblJoueurs!$B77</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K77" s="1" t="str">
         <f aca="false">tblJoueurs!$D77 &amp; " " &amp;tblJoueurs!$C77</f>
-        <v>Christian ?</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>Élizabeth LeBlanc</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B78" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="I78" s="1" t="n">
         <f aca="false">tblJoueurs!$A78</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J78" s="1" t="n">
         <f aca="false">tblJoueurs!$B78</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="K78" s="1" t="str">
         <f aca="false">tblJoueurs!$D78 &amp; " " &amp;tblJoueurs!$C78</f>
-        <v> </v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>NA Les Faciles à cuire</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I79" s="1" t="n">
         <f aca="false">tblJoueurs!$A79</f>
         <v>0</v>
@@ -5281,7 +5309,7 @@
         <v> </v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I80" s="1" t="n">
         <f aca="false">tblJoueurs!$A80</f>
         <v>0</v>
@@ -5295,7 +5323,7 @@
         <v> </v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I81" s="1" t="n">
         <f aca="false">tblJoueurs!$A81</f>
         <v>0</v>
@@ -5309,7 +5337,7 @@
         <v> </v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I82" s="1" t="n">
         <f aca="false">tblJoueurs!$A82</f>
         <v>0</v>
@@ -5360,7 +5388,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -5386,7 +5414,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -5412,7 +5440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -5429,7 +5457,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>1</v>
@@ -5438,7 +5466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>7</v>
       </c>
@@ -5446,13 +5474,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>47</v>
@@ -5464,7 +5492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>2</v>
       </c>
@@ -5472,13 +5500,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>37</v>
@@ -5490,7 +5518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>6</v>
       </c>
@@ -5498,13 +5526,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>47</v>
@@ -5516,7 +5544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>7</v>
       </c>
@@ -5542,7 +5570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>3</v>
       </c>
@@ -5550,13 +5578,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>47</v>
@@ -5568,7 +5596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
@@ -5579,10 +5607,10 @@
         <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>47</v>
@@ -5594,7 +5622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>3</v>
       </c>
@@ -5602,13 +5630,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>47</v>
@@ -5620,7 +5648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>7</v>
       </c>
@@ -5628,13 +5656,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>47</v>
@@ -5646,7 +5674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>6</v>
       </c>
@@ -5654,13 +5682,13 @@
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>37</v>
@@ -5672,7 +5700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>6</v>
       </c>
@@ -5680,13 +5708,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>47</v>
@@ -5698,7 +5726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>7</v>
       </c>
@@ -5706,13 +5734,13 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>47</v>
@@ -5724,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>6</v>
       </c>
@@ -5732,13 +5760,13 @@
         <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>47</v>
@@ -5750,7 +5778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>4</v>
       </c>
@@ -5758,13 +5786,13 @@
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>47</v>
@@ -5776,7 +5804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>1</v>
       </c>
@@ -5802,7 +5830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>2</v>
       </c>
@@ -5810,13 +5838,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>34</v>
@@ -5828,7 +5856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>2</v>
       </c>
@@ -5836,13 +5864,13 @@
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>37</v>
@@ -5854,7 +5882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>2</v>
       </c>
@@ -5862,13 +5890,13 @@
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>37</v>
@@ -5880,7 +5908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>2</v>
       </c>
@@ -5888,13 +5916,13 @@
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>37</v>
@@ -5906,7 +5934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>2</v>
       </c>
@@ -5914,13 +5942,13 @@
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>47</v>
@@ -5932,7 +5960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>2</v>
       </c>
@@ -5940,13 +5968,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>47</v>
@@ -5958,7 +5986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>2</v>
       </c>
@@ -5984,7 +6012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>2</v>
       </c>
@@ -6001,7 +6029,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>1</v>
@@ -6010,7 +6038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>3</v>
       </c>
@@ -6018,13 +6046,13 @@
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>34</v>
@@ -6036,7 +6064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>3</v>
       </c>
@@ -6044,13 +6072,13 @@
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>37</v>
@@ -6062,7 +6090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>3</v>
       </c>
@@ -6070,13 +6098,13 @@
         <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>37</v>
@@ -6088,7 +6116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>3</v>
       </c>
@@ -6096,13 +6124,13 @@
         <v>4</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>37</v>
@@ -6114,7 +6142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>3</v>
       </c>
@@ -6122,13 +6150,13 @@
         <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>47</v>
@@ -6140,7 +6168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>3</v>
       </c>
@@ -6166,7 +6194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>3</v>
       </c>
@@ -6183,7 +6211,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>1</v>
@@ -6192,7 +6220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>4</v>
       </c>
@@ -6200,13 +6228,13 @@
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>34</v>
@@ -6218,7 +6246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>4</v>
       </c>
@@ -6226,13 +6254,13 @@
         <v>2</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>37</v>
@@ -6244,7 +6272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>4</v>
       </c>
@@ -6252,13 +6280,13 @@
         <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>37</v>
@@ -6270,7 +6298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>4</v>
       </c>
@@ -6278,13 +6306,13 @@
         <v>4</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>37</v>
@@ -6296,7 +6324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>4</v>
       </c>
@@ -6304,13 +6332,13 @@
         <v>6</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>47</v>
@@ -6322,7 +6350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>4</v>
       </c>
@@ -6330,13 +6358,13 @@
         <v>7</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>47</v>
@@ -6348,7 +6376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>4</v>
       </c>
@@ -6356,13 +6384,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>47</v>
@@ -6374,7 +6402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>4</v>
       </c>
@@ -6400,7 +6428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>4</v>
       </c>
@@ -6417,7 +6445,7 @@
         <v>21</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G41" s="1" t="n">
         <v>1</v>
@@ -6426,7 +6454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>5</v>
       </c>
@@ -6434,13 +6462,13 @@
         <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>34</v>
@@ -6452,7 +6480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>5</v>
       </c>
@@ -6460,7 +6488,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>45</v>
@@ -6478,7 +6506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>5</v>
       </c>
@@ -6486,13 +6514,13 @@
         <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>37</v>
@@ -6504,7 +6532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>5</v>
       </c>
@@ -6512,13 +6540,13 @@
         <v>4</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>37</v>
@@ -6530,7 +6558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>5</v>
       </c>
@@ -6538,13 +6566,13 @@
         <v>5</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>47</v>
@@ -6556,7 +6584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>5</v>
       </c>
@@ -6564,13 +6592,13 @@
         <v>6</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>47</v>
@@ -6582,7 +6610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>5</v>
       </c>
@@ -6608,7 +6636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>5</v>
       </c>
@@ -6616,13 +6644,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>47</v>
@@ -6634,7 +6662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>5</v>
       </c>
@@ -6651,7 +6679,7 @@
         <v>22</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G50" s="1" t="n">
         <v>1</v>
@@ -6660,7 +6688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>6</v>
       </c>
@@ -6668,13 +6696,13 @@
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>34</v>
@@ -6686,7 +6714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>6</v>
       </c>
@@ -6694,13 +6722,13 @@
         <v>5</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>47</v>
@@ -6712,7 +6740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>6</v>
       </c>
@@ -6720,13 +6748,13 @@
         <v>3</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>37</v>
@@ -6738,7 +6766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>6</v>
       </c>
@@ -6746,13 +6774,13 @@
         <v>2</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>37</v>
@@ -6764,7 +6792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>6</v>
       </c>
@@ -6772,13 +6800,13 @@
         <v>6</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>47</v>
@@ -6790,7 +6818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>6</v>
       </c>
@@ -6816,7 +6844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>6</v>
       </c>
@@ -6833,7 +6861,7 @@
         <v>23</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G57" s="1" t="n">
         <v>1</v>
@@ -6842,7 +6870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>7</v>
       </c>
@@ -6850,13 +6878,13 @@
         <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>34</v>
@@ -6868,7 +6896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>7</v>
       </c>
@@ -6876,13 +6904,13 @@
         <v>2</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>37</v>
@@ -6894,7 +6922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>7</v>
       </c>
@@ -6902,13 +6930,13 @@
         <v>3</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>37</v>
@@ -6920,7 +6948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>7</v>
       </c>
@@ -6928,13 +6956,13 @@
         <v>4</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>37</v>
@@ -6946,7 +6974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>7</v>
       </c>
@@ -6954,13 +6982,13 @@
         <v>5</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>47</v>
@@ -6972,7 +7000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>7</v>
       </c>
@@ -6998,7 +7026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>7</v>
       </c>
@@ -7015,7 +7043,7 @@
         <v>5</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G64" s="1" t="n">
         <v>1</v>
@@ -7024,7 +7052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>1</v>
       </c>
@@ -7050,7 +7078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>1</v>
       </c>
@@ -7076,7 +7104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>1</v>
       </c>
@@ -7102,7 +7130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>1</v>
       </c>
@@ -7128,7 +7156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>1</v>
       </c>
@@ -7154,7 +7182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>1</v>
       </c>
@@ -7180,7 +7208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>7</v>
       </c>
@@ -7188,13 +7216,13 @@
         <v>12</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>47</v>
@@ -7206,7 +7234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>6</v>
       </c>
@@ -7214,13 +7242,13 @@
         <v>11</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>47</v>
@@ -7232,7 +7260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>6</v>
       </c>
@@ -7240,13 +7268,13 @@
         <v>12</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>47</v>
